--- a/planilha/marco/Escala ASO1 - Horto Florestal - 1° Turno - Março.xlsx
+++ b/planilha/marco/Escala ASO1 - Horto Florestal - 1° Turno - Março.xlsx
@@ -79,7 +79,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>Pedro Rodrigues</t>
+    <t>Marco Alves</t>
   </si>
   <si>
     <t>*(1)</t>
@@ -103,7 +103,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>28/02/20</t>
+    <t>03/03/20</t>
   </si>
 </sst>
 </file>
